--- a/tabular/core/borna-reference_feature_locations.xlsx
+++ b/tabular/core/borna-reference_feature_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA-ve/Bornaviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002FF4B-2605-4346-B5D2-DE48C95E0FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5F413-23A2-7447-83C2-2C016608B4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="1620" windowWidth="23300" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
   <si>
     <t>featureName</t>
   </si>
@@ -109,18 +109,34 @@
   <si>
     <t>Carbovirus</t>
   </si>
+  <si>
+    <t>MG599939</t>
+  </si>
+  <si>
+    <t>REF_WSBV</t>
+  </si>
+  <si>
+    <t>Cultervirus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,2479 +249,2480 @@
   </borders>
   <cellStyleXfs count="2457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -5505,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6141,54 +6158,156 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1169</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1239</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1747</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="11">
+        <v>3283</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="11">
+        <v>3687</v>
+      </c>
+      <c r="F37" s="11">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C39"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C41"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C42"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
@@ -6933,7 +7052,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1464">
     <sortCondition ref="C2:C1464"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/core/borna-reference_feature_locations.xlsx
+++ b/tabular/core/borna-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA-ve/Bornaviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5F413-23A2-7447-83C2-2C016608B4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3310842-37BA-034B-8D0A-BBB55D1A8C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="1620" windowWidth="23300" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,10 @@
     <t>MG599939</t>
   </si>
   <si>
-    <t>REF_WSBV</t>
+    <t>Cultervirus</t>
   </si>
   <si>
-    <t>Cultervirus</t>
+    <t>REF_WhSBV</t>
   </si>
 </sst>
 </file>
@@ -5522,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C37" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6162,10 +6162,10 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>13</v>
@@ -6182,10 +6182,10 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>14</v>
@@ -6202,10 +6202,10 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>15</v>
@@ -6222,10 +6222,10 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
         <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>16</v>
@@ -6242,10 +6242,10 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
         <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>17</v>
@@ -6262,10 +6262,10 @@
         <v>24</v>
       </c>
       <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
